--- a/Mifos Automation Excels/Client/55RBI-EI-DB-SAR-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/55RBI-EI-DB-SAR-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -144,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -179,12 +179,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -493,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:B13"/>
     </sheetView>
   </sheetViews>
@@ -618,7 +612,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -766,10 +760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -828,51 +822,31 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="7">
         <v>42005</v>
       </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="6"/>
       <c r="I2" s="6">
         <v>0</v>
       </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
+      <c r="J2" s="6"/>
       <c r="K2" s="6">
         <v>0</v>
       </c>
       <c r="L2" s="6">
         <v>0</v>
       </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6">
-        <v>0</v>
-      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
@@ -884,12 +858,8 @@
       <c r="C3" s="7">
         <v>42036</v>
       </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="6">
         <v>788.49</v>
       </c>
@@ -914,10 +884,10 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
       <c r="O3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
         <v>888.49</v>
       </c>
     </row>
@@ -931,12 +901,8 @@
       <c r="C4" s="7">
         <v>42064</v>
       </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="6">
         <v>788.49</v>
       </c>
@@ -961,10 +927,10 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
       <c r="O4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
         <v>888.49</v>
       </c>
     </row>
@@ -978,12 +944,8 @@
       <c r="C5" s="7">
         <v>42095</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="6">
         <v>788.49</v>
       </c>
@@ -1008,10 +970,10 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
       <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
         <v>888.49</v>
       </c>
     </row>
@@ -1025,20 +987,16 @@
       <c r="C6" s="7">
         <v>42125</v>
       </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>812.14</v>
+        <v>788.49</v>
       </c>
       <c r="G6" s="13">
-        <v>6822.39</v>
+        <v>6846.04</v>
       </c>
       <c r="H6" s="6">
-        <v>76.349999999999994</v>
+        <v>100</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1055,10 +1013,10 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
       <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
         <v>888.49</v>
       </c>
     </row>
@@ -1072,20 +1030,16 @@
       <c r="C7" s="7">
         <v>42156</v>
       </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>820.27</v>
+        <v>820.03</v>
       </c>
       <c r="G7" s="13">
-        <v>6002.12</v>
+        <v>6026.01</v>
       </c>
       <c r="H7" s="6">
-        <v>68.22</v>
+        <v>68.459999999999994</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1102,10 +1056,10 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
       <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
         <v>888.49</v>
       </c>
     </row>
@@ -1119,20 +1073,16 @@
       <c r="C8" s="7">
         <v>42186</v>
       </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>828.47</v>
+        <v>828.23</v>
       </c>
       <c r="G8" s="13">
-        <v>5173.6499999999996</v>
+        <v>5197.78</v>
       </c>
       <c r="H8" s="6">
-        <v>60.02</v>
+        <v>60.26</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1149,10 +1099,10 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
       <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
         <v>888.49</v>
       </c>
     </row>
@@ -1166,20 +1116,16 @@
       <c r="C9" s="7">
         <v>42217</v>
       </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="6">
-        <v>836.75</v>
+        <v>836.51</v>
       </c>
       <c r="G9" s="13">
-        <v>4336.8999999999996</v>
+        <v>4361.2700000000004</v>
       </c>
       <c r="H9" s="6">
-        <v>51.74</v>
+        <v>51.98</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
@@ -1196,10 +1142,10 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
       <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
         <v>888.49</v>
       </c>
     </row>
@@ -1213,20 +1159,16 @@
       <c r="C10" s="7">
         <v>42248</v>
       </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="6">
-        <v>845.12</v>
+        <v>844.88</v>
       </c>
       <c r="G10" s="13">
-        <v>3491.78</v>
+        <v>3516.39</v>
       </c>
       <c r="H10" s="6">
-        <v>43.37</v>
+        <v>43.61</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -1243,10 +1185,10 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
       <c r="O10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
         <v>888.49</v>
       </c>
     </row>
@@ -1260,20 +1202,16 @@
       <c r="C11" s="7">
         <v>42278</v>
       </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="6">
-        <v>853.57</v>
+        <v>853.33</v>
       </c>
       <c r="G11" s="13">
-        <v>2638.21</v>
+        <v>2663.06</v>
       </c>
       <c r="H11" s="6">
-        <v>34.92</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
@@ -1290,10 +1228,10 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
       <c r="O11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
         <v>888.49</v>
       </c>
     </row>
@@ -1307,20 +1245,16 @@
       <c r="C12" s="7">
         <v>42309</v>
       </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="6">
-        <v>862.11</v>
+        <v>861.86</v>
       </c>
       <c r="G12" s="13">
-        <v>1776.1</v>
+        <v>1801.2</v>
       </c>
       <c r="H12" s="6">
-        <v>26.38</v>
+        <v>26.63</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
@@ -1337,10 +1271,10 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
       <c r="O12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
         <v>888.49</v>
       </c>
     </row>
@@ -1354,20 +1288,16 @@
       <c r="C13" s="7">
         <v>42339</v>
       </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="6">
-        <v>870.73</v>
+        <v>870.48</v>
       </c>
       <c r="G13" s="6">
-        <v>905.37</v>
+        <v>930.72</v>
       </c>
       <c r="H13" s="6">
-        <v>17.760000000000002</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -1384,10 +1314,10 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
       <c r="O13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
         <v>888.49</v>
       </c>
     </row>
@@ -1401,20 +1331,16 @@
       <c r="C14" s="7">
         <v>42370</v>
       </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <v>905.37</v>
+        <v>930.72</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>9.0500000000000007</v>
+        <v>9.31</v>
       </c>
       <c r="I14" s="6">
         <v>0</v>
@@ -1423,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>914.42</v>
+        <v>940.03</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -1431,34 +1357,14 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
       <c r="O14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>914.42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="15"/>
+        <v>940.03</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C15:E15"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
